--- a/output/1Y_P95_1VAL-D.xlsx
+++ b/output/1Y_P95_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>17.7792</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>562.455</v>
       </c>
-      <c r="G2" s="1">
-        <v>562.455</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.141600000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.7792</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.141600000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>18.0055</v>
       </c>
+      <c r="E3" s="1">
+        <v>562.455</v>
+      </c>
       <c r="F3" s="1">
         <v>555.3859</v>
       </c>
-      <c r="G3" s="1">
-        <v>1117.8409</v>
-      </c>
       <c r="H3" s="1">
-        <v>20022.989</v>
+        <v>10074.8065</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.8916</v>
+        <v>10074.8065</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.7792</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20022.989</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0038</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>18.1364</v>
       </c>
+      <c r="E4" s="1">
+        <v>1117.8409</v>
+      </c>
       <c r="F4" s="1">
         <v>551.3773</v>
       </c>
-      <c r="G4" s="1">
-        <v>1669.2182</v>
-      </c>
       <c r="H4" s="1">
-        <v>30116.5355</v>
+        <v>20168.4201</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.9725</v>
+        <v>20168.4201</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.8916</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30116.5355</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0031</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>18.2605</v>
       </c>
+      <c r="E5" s="1">
+        <v>1669.2182</v>
+      </c>
       <c r="F5" s="1">
         <v>547.6301</v>
       </c>
-      <c r="G5" s="1">
-        <v>2216.8483</v>
-      </c>
       <c r="H5" s="1">
-        <v>40270.8234</v>
+        <v>30322.684</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.0436</v>
+        <v>30322.684</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.9725</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40270.8234</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0038</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>18.0221</v>
       </c>
+      <c r="E6" s="1">
+        <v>2216.8483</v>
+      </c>
       <c r="F6" s="1">
         <v>554.8742999999999</v>
       </c>
-      <c r="G6" s="1">
-        <v>2771.7226</v>
-      </c>
       <c r="H6" s="1">
-        <v>49693.1062</v>
+        <v>39744.987</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>-0</v>
       </c>
       <c r="J6" s="1">
-        <v>18.0393</v>
+        <v>39744.987</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.0436</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49693.1062</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0115</v>
+        <v>-0.0143</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>18.2846</v>
       </c>
+      <c r="E7" s="1">
+        <v>2771.7226</v>
+      </c>
       <c r="F7" s="1">
         <v>546.9083000000001</v>
       </c>
-      <c r="G7" s="1">
-        <v>3318.6309</v>
-      </c>
       <c r="H7" s="1">
-        <v>60365.2332</v>
+        <v>50417.0802</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>-0</v>
       </c>
       <c r="J7" s="1">
-        <v>18.0797</v>
+        <v>50417.0802</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.0393</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60365.2332</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0113</v>
+        <v>0.0135</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>16.485</v>
       </c>
+      <c r="E8" s="1">
+        <v>3318.6309</v>
+      </c>
       <c r="F8" s="1">
         <v>606.6121000000001</v>
       </c>
-      <c r="G8" s="1">
-        <v>3925.243</v>
-      </c>
       <c r="H8" s="1">
-        <v>64372.4154</v>
+        <v>54424.2201</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>-0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.8333</v>
+        <v>54424.2201</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>18.0797</v>
+      </c>
+      <c r="M8" s="1">
         <v>1.538</v>
       </c>
-      <c r="L8" s="1">
-        <v>4593.649</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-5406.351</v>
+        <v>3836.6185</v>
       </c>
       <c r="O8" s="1">
-        <v>4593.649</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>68966.0644</v>
+        <v>-6163.3815</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0199</v>
+        <v>-0.0992</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>16.9765</v>
       </c>
+      <c r="E9" s="1">
+        <v>3925.243</v>
+      </c>
       <c r="F9" s="1">
-        <v>643.1673</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4568.4103</v>
+        <v>634.2487</v>
       </c>
       <c r="H9" s="1">
-        <v>77153.141</v>
+        <v>66291.0742</v>
       </c>
       <c r="I9" s="1">
-        <v>80918.7298</v>
+        <v>3836.6185</v>
       </c>
       <c r="J9" s="1">
-        <v>17.7127</v>
+        <v>70127.6927</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70767.32369999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>18.0288</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10918.7298</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>3674.9192</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>80828.06020000001</v>
+        <v>-10767.3237</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0236</v>
+        <v>0.0885</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>17.414</v>
       </c>
+      <c r="E10" s="1">
+        <v>4559.4918</v>
+      </c>
       <c r="F10" s="1">
-        <v>627.0087</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5195.419</v>
+        <v>618.3142</v>
       </c>
       <c r="H10" s="1">
-        <v>90003.8809</v>
+        <v>78987.2674</v>
       </c>
       <c r="I10" s="1">
-        <v>91837.4596</v>
+        <v>3069.2948</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6766</v>
+        <v>82056.5621</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81534.6474</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.8824</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10918.7298</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>2756.1894</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>92760.07030000001</v>
+        <v>-10767.3237</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0213</v>
+        <v>0.0241</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>18.2974</v>
       </c>
+      <c r="E11" s="1">
+        <v>5177.806</v>
+      </c>
       <c r="F11" s="1">
-        <v>596.7367</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5792.1557</v>
+        <v>588.462</v>
       </c>
       <c r="H11" s="1">
-        <v>105431.7146</v>
+        <v>94249.0132</v>
       </c>
       <c r="I11" s="1">
-        <v>102756.1894</v>
+        <v>2301.9711</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7406</v>
+        <v>96550.9843</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>92301.9711</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.8265</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10918.7298</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>1837.4596</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>107269.1742</v>
+        <v>-10767.3237</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0439</v>
+        <v>0.0488</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>17.699</v>
       </c>
+      <c r="E12" s="1">
+        <v>5766.2679</v>
+      </c>
       <c r="F12" s="1">
-        <v>616.9122</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6409.068</v>
+        <v>608.3577</v>
       </c>
       <c r="H12" s="1">
-        <v>112845.7416</v>
+        <v>101527.8325</v>
       </c>
       <c r="I12" s="1">
-        <v>113674.9192</v>
+        <v>1534.6474</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7366</v>
+        <v>103062.4799</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>103069.2948</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.8745</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10918.7298</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>918.7298</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>113764.4714</v>
+        <v>-10767.3237</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0299</v>
+        <v>-0.0327</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>18.0595</v>
       </c>
+      <c r="E13" s="1">
+        <v>6374.6257</v>
+      </c>
       <c r="F13" s="1">
-        <v>604.5976000000001</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7013.6655</v>
+        <v>596.2138</v>
       </c>
       <c r="H13" s="1">
-        <v>126006.1124</v>
+        <v>114525.2498</v>
       </c>
       <c r="I13" s="1">
-        <v>124593.649</v>
+        <v>767.3237</v>
       </c>
       <c r="J13" s="1">
-        <v>17.7644</v>
+        <v>115292.5734</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>113836.6185</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.8578</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10918.7298</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>126006.1124</v>
+        <v>-10767.3237</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0181</v>
+        <v>0.0197</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>18.696</v>
       </c>
+      <c r="E14" s="1">
+        <v>6970.8395</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7013.6655</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6374.6257</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>129651.3409</v>
       </c>
       <c r="I14" s="1">
-        <v>124593.649</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.7644</v>
+        <v>129651.3409</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>113836.6185</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.3304</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>130447.8668</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>130447.8668</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>130447.8668</v>
+        <v>118562.3002</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0409</v>
+        <v>0.0348</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>17.7792</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>562.455</v>
       </c>
       <c r="G2" s="1">
-        <v>562.455</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.141600000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.7792</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.141600000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>18.0055</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>562.455</v>
       </c>
       <c r="F3" s="1">
         <v>554.1024</v>
       </c>
       <c r="G3" s="1">
-        <v>1116.5574</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10074.8065</v>
       </c>
       <c r="I3" s="1">
-        <v>19976.8912</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.8915</v>
+        <v>10074.8065</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9976.8912</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.7381</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9976.8912</v>
       </c>
-      <c r="O3" s="1">
-        <v>23.1088</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20023.1088</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0038</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>18.1364</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1116.5574</v>
       </c>
       <c r="F4" s="1">
         <v>546.2018</v>
       </c>
       <c r="G4" s="1">
-        <v>1662.7592</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20145.2641</v>
       </c>
       <c r="I4" s="1">
-        <v>29883.0247</v>
+        <v>23.1088</v>
       </c>
       <c r="J4" s="1">
-        <v>17.9719</v>
+        <v>20168.3729</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19883.0247</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.8074</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9906.1335</v>
       </c>
-      <c r="O4" s="1">
-        <v>116.9753</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30116.9753</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0031</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>18.2605</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1662.7592</v>
       </c>
       <c r="F5" s="1">
         <v>539.1807</v>
       </c>
       <c r="G5" s="1">
-        <v>2201.9399</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30205.3508</v>
       </c>
       <c r="I5" s="1">
-        <v>39728.7344</v>
+        <v>116.9753</v>
       </c>
       <c r="J5" s="1">
-        <v>18.0426</v>
+        <v>30322.3261</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29728.7344</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.8792</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9845.709699999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>271.2656</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40271.2656</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0038</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>18.0221</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2201.9399</v>
       </c>
       <c r="F6" s="1">
         <v>569.9261</v>
       </c>
       <c r="G6" s="1">
-        <v>2771.866</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>49695.6774</v>
+        <v>39477.6999</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>271.2656</v>
       </c>
       <c r="J6" s="1">
-        <v>18.0384</v>
+        <v>39748.9655</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.1658</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10271.2656</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49695.6774</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0114</v>
+        <v>-0.0142</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>18.2846</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2771.866</v>
       </c>
       <c r="F7" s="1">
         <v>526.6858999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>3298.5519</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>50419.6888</v>
       </c>
       <c r="I7" s="1">
-        <v>59630.241</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>18.0777</v>
+        <v>50419.6888</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49630.241</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.905</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9630.241</v>
       </c>
-      <c r="O7" s="1">
-        <v>369.759</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60369.759</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0113</v>
+        <v>0.0135</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>16.485</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3298.5519</v>
       </c>
       <c r="F8" s="1">
         <v>629.0421</v>
       </c>
       <c r="G8" s="1">
-        <v>3927.594</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>64410.9711</v>
+        <v>54094.9323</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>369.759</v>
       </c>
       <c r="J8" s="1">
-        <v>17.8226</v>
+        <v>54464.6913</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>18.1898</v>
+      </c>
+      <c r="M8" s="1">
         <v>1.538</v>
       </c>
-      <c r="L8" s="1">
-        <v>4565.8556</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-5803.9034</v>
+        <v>3836.817</v>
       </c>
       <c r="O8" s="1">
-        <v>4565.8556</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>68976.82670000001</v>
+        <v>-6532.942</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0198</v>
+        <v>-0.09859999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>16.9765</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3927.594</v>
       </c>
       <c r="F9" s="1">
         <v>809.3852000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>4736.9792</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>66330.7791</v>
       </c>
       <c r="I9" s="1">
-        <v>83740.5278</v>
+        <v>3836.817</v>
       </c>
       <c r="J9" s="1">
-        <v>17.678</v>
+        <v>70167.59600000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>73740.5278</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>18.775</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-13740.5278</v>
       </c>
-      <c r="O9" s="1">
-        <v>825.3278</v>
-      </c>
-      <c r="P9" s="1">
-        <v>80825.3278</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0234</v>
+        <v>0.0885</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>17.414</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4736.9792</v>
       </c>
       <c r="F10" s="1">
         <v>458.2158</v>
       </c>
       <c r="G10" s="1">
-        <v>5195.195</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>82062.0071</v>
       </c>
       <c r="I10" s="1">
-        <v>91719.8976</v>
+        <v>96.28919999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6548</v>
+        <v>82158.2963</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81719.8976</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.2515</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-7979.3698</v>
       </c>
-      <c r="O10" s="1">
-        <v>2845.958</v>
-      </c>
-      <c r="P10" s="1">
-        <v>92845.958</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0222</v>
+        <v>0.0248</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>18.2974</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5195.195</v>
       </c>
       <c r="F11" s="1">
         <v>298.5558</v>
       </c>
       <c r="G11" s="1">
-        <v>5493.7509</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>94565.5374</v>
       </c>
       <c r="I11" s="1">
-        <v>97182.6931</v>
+        <v>2116.9194</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6897</v>
+        <v>96682.4568</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>87182.6931</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.7814</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-5462.7956</v>
       </c>
-      <c r="O11" s="1">
-        <v>7383.1624</v>
-      </c>
-      <c r="P11" s="1">
-        <v>107383.1624</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0441</v>
+        <v>0.0491</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>17.699</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5493.7509</v>
       </c>
       <c r="F12" s="1">
         <v>753.6934</v>
       </c>
       <c r="G12" s="1">
-        <v>6247.4442</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>96729.5701</v>
       </c>
       <c r="I12" s="1">
-        <v>110522.3121</v>
+        <v>6654.1238</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6908</v>
+        <v>103383.6939</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100522.3121</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.2976</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-13339.6189</v>
       </c>
-      <c r="O12" s="1">
-        <v>4043.5435</v>
-      </c>
-      <c r="P12" s="1">
-        <v>114043.5435</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0285</v>
+        <v>-0.0309</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>18.0595</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6247.4442</v>
       </c>
       <c r="F13" s="1">
         <v>431.9132</v>
       </c>
       <c r="G13" s="1">
-        <v>6679.3574</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>112240.3335</v>
       </c>
       <c r="I13" s="1">
-        <v>118322.4489</v>
+        <v>3314.5049</v>
       </c>
       <c r="J13" s="1">
-        <v>17.7146</v>
+        <v>115554.8384</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>108322.4489</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.3387</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-7800.1368</v>
       </c>
-      <c r="O13" s="1">
-        <v>6243.4067</v>
-      </c>
-      <c r="P13" s="1">
-        <v>126243.4067</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0177</v>
+        <v>0.0191</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>18.696</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6679.3574</v>
       </c>
       <c r="F14" s="1">
         <v>-6679.3574</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124230.0371</v>
       </c>
       <c r="I14" s="1">
-        <v>118322.4489</v>
+        <v>5514.3681</v>
       </c>
       <c r="J14" s="1">
-        <v>17.7146</v>
+        <v>129744.4052</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>108322.4489</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.2175</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>124230.0371</v>
       </c>
-      <c r="O14" s="1">
-        <v>130473.4438</v>
-      </c>
-      <c r="P14" s="1">
-        <v>130473.4438</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0424</v>
+        <v>0.0334</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>17.7792</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>562.455</v>
       </c>
       <c r="G2" s="1">
-        <v>562.455</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.141600000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.7792</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.141600000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>18.0055</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>562.455</v>
       </c>
       <c r="F3" s="1">
         <v>556.8938000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1119.3488</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10074.8065</v>
       </c>
       <c r="I3" s="1">
-        <v>20027.1517</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.8918</v>
+        <v>10074.8065</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10027.1517</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.8275</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10027.1517</v>
       </c>
-      <c r="O3" s="1">
-        <v>-27.1517</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20022.8483</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0037</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>18.1364</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1119.3488</v>
       </c>
       <c r="F4" s="1">
         <v>551.7380000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>1671.0868</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20195.6273</v>
       </c>
       <c r="I4" s="1">
-        <v>30033.6929</v>
+        <v>-27.1517</v>
       </c>
       <c r="J4" s="1">
-        <v>17.9726</v>
+        <v>20168.4756</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20033.6929</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.8976</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10006.5413</v>
       </c>
-      <c r="O4" s="1">
-        <v>-33.6929</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30116.5571</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0031</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>18.2605</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1671.0868</v>
       </c>
       <c r="F5" s="1">
         <v>547.4227</v>
       </c>
       <c r="G5" s="1">
-        <v>2218.5096</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>30356.6292</v>
       </c>
       <c r="I5" s="1">
-        <v>40029.9059</v>
+        <v>-33.6929</v>
       </c>
       <c r="J5" s="1">
-        <v>18.0436</v>
+        <v>30322.9363</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30029.9059</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.9703</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9996.213</v>
       </c>
-      <c r="O5" s="1">
-        <v>-29.9059</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40271.0953</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0039</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>18.0221</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2218.5096</v>
       </c>
       <c r="F6" s="1">
         <v>553.2148999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>2771.7245</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>49693.1393</v>
+        <v>39774.7708</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>-29.9059</v>
       </c>
       <c r="J6" s="1">
-        <v>18.0393</v>
+        <v>39744.8649</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.0301</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9970.0941</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49693.1393</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0115</v>
+        <v>-0.0143</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>18.2846</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2771.7245</v>
       </c>
       <c r="F7" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>3318.6328</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60365.2668</v>
+        <v>50417.1137</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>18.0797</v>
+        <v>50417.1137</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.0393</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60365.2668</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0113</v>
+        <v>0.0135</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>16.485</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3318.6328</v>
       </c>
       <c r="F8" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>3925.2449</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>64372.4457</v>
+        <v>54424.2504</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.8333</v>
+        <v>54424.2504</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>18.0797</v>
+      </c>
+      <c r="M8" s="1">
         <v>1.538</v>
       </c>
-      <c r="L8" s="1">
-        <v>4593.6515</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-5406.3485</v>
+        <v>3836.621</v>
       </c>
       <c r="O8" s="1">
-        <v>4593.6515</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>68966.0972</v>
+        <v>-6163.379</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0199</v>
+        <v>-0.0992</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>16.9765</v>
       </c>
       <c r="E9" s="1">
+        <v>3925.2449</v>
+      </c>
+      <c r="F9" s="1">
+        <v>815.0456</v>
+      </c>
+      <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
-      <c r="F9" s="1">
-        <v>859.6384</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4784.8833</v>
-      </c>
       <c r="H9" s="1">
-        <v>80809.02280000001</v>
+        <v>66291.1054</v>
       </c>
       <c r="I9" s="1">
-        <v>84593.65150000001</v>
+        <v>3836.621</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6794</v>
+        <v>70127.7264</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>73836.621</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>18.8107</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-14593.6515</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>80809.02280000001</v>
+        <v>-13836.621</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0233</v>
+        <v>0.0885</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>17.414</v>
       </c>
       <c r="E10" s="1">
+        <v>4740.2904</v>
+      </c>
+      <c r="F10" s="1">
+        <v>560.0298</v>
+      </c>
+      <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
-      <c r="F10" s="1">
-        <v>515.437</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5300.3203</v>
-      </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>82119.36930000001</v>
       </c>
       <c r="I10" s="1">
-        <v>93569.4713</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6536</v>
+        <v>82119.36930000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>83588.9807</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.6337</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-8975.819799999999</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>1024.1802</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>92845.3385</v>
+        <v>-9752.359700000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0224</v>
+        <v>0.0249</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>18.2974</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5300.3203</v>
       </c>
       <c r="F11" s="1">
         <v>318.7026</v>
       </c>
       <c r="G11" s="1">
-        <v>5619.0229</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>96479.0797</v>
       </c>
       <c r="I11" s="1">
-        <v>99400.9005</v>
+        <v>247.6403</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6901</v>
+        <v>96726.72010000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>89420.4099</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.8708</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-5831.4292</v>
       </c>
-      <c r="O11" s="1">
-        <v>5192.751</v>
-      </c>
-      <c r="P11" s="1">
-        <v>107473.0151</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>17.699</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5619.0229</v>
       </c>
       <c r="F12" s="1">
         <v>786.9738</v>
       </c>
       <c r="G12" s="1">
-        <v>6405.9967</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>98935.2598</v>
       </c>
       <c r="I12" s="1">
-        <v>113329.5504</v>
+        <v>4416.2111</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6912</v>
+        <v>103351.4709</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>103349.0597</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.3927</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-13928.6498</v>
       </c>
-      <c r="O12" s="1">
-        <v>1264.1012</v>
-      </c>
-      <c r="P12" s="1">
-        <v>114055.7666</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0291</v>
+        <v>-0.0316</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>18.0595</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6405.9967</v>
       </c>
       <c r="F13" s="1">
         <v>460.1391</v>
       </c>
       <c r="G13" s="1">
-        <v>6866.1359</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>115088.8558</v>
       </c>
       <c r="I13" s="1">
-        <v>121639.4333</v>
+        <v>487.5613</v>
       </c>
       <c r="J13" s="1">
-        <v>17.7159</v>
+        <v>115576.4171</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111658.9427</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.4304</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-8309.882900000001</v>
       </c>
-      <c r="O13" s="1">
-        <v>2954.2182</v>
-      </c>
-      <c r="P13" s="1">
-        <v>126309.8419</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0182</v>
+        <v>0.0196</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>18.696</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6866.1359</v>
       </c>
       <c r="F14" s="1">
         <v>-6866.1359</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>127703.9476</v>
       </c>
       <c r="I14" s="1">
-        <v>121639.4333</v>
+        <v>2177.6783</v>
       </c>
       <c r="J14" s="1">
-        <v>17.7159</v>
+        <v>129881.6259</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111658.9427</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.2623</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>127703.9476</v>
       </c>
-      <c r="O14" s="1">
-        <v>130658.1658</v>
-      </c>
-      <c r="P14" s="1">
-        <v>130658.1658</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0415</v>
+        <v>0.0343</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>17.7792</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>562.455</v>
       </c>
       <c r="G2" s="1">
-        <v>562.455</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.141600000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.7792</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.141600000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>18.0055</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>562.455</v>
       </c>
       <c r="F3" s="1">
         <v>555.3859</v>
       </c>
       <c r="G3" s="1">
-        <v>1117.8409</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20022.989</v>
+        <v>10074.8065</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.8916</v>
+        <v>10074.8065</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.7792</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20022.989</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0038</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>18.1364</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1117.8409</v>
       </c>
       <c r="F4" s="1">
         <v>551.3773</v>
       </c>
       <c r="G4" s="1">
-        <v>1669.2182</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30116.5355</v>
+        <v>20168.4201</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.9725</v>
+        <v>20168.4201</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.8916</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30116.5355</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0031</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>18.2605</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1669.2182</v>
       </c>
       <c r="F5" s="1">
         <v>547.6301</v>
       </c>
       <c r="G5" s="1">
-        <v>2216.8483</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40270.8234</v>
+        <v>30322.684</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.0436</v>
+        <v>30322.684</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.9725</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40270.8234</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0038</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>18.0221</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2216.8483</v>
       </c>
       <c r="F6" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>2771.7226</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>49693.1062</v>
+        <v>39744.987</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>-0</v>
       </c>
       <c r="J6" s="1">
-        <v>18.0393</v>
+        <v>39744.987</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.0436</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49693.1062</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0115</v>
+        <v>-0.0143</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>18.2846</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2771.7226</v>
       </c>
       <c r="F7" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>3318.6309</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>60365.2332</v>
+        <v>50417.0802</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>18.0797</v>
+        <v>50417.0802</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.0393</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60365.2332</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0113</v>
+        <v>0.0135</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>16.485</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3318.6309</v>
       </c>
       <c r="F8" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>3925.243</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>64372.4154</v>
+        <v>54424.2201</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.8333</v>
+        <v>54424.2201</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>18.0797</v>
+      </c>
+      <c r="M8" s="1">
         <v>1.538</v>
       </c>
-      <c r="L8" s="1">
-        <v>4593.649</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-5406.351</v>
+        <v>3836.6185</v>
       </c>
       <c r="O8" s="1">
-        <v>4593.649</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>68966.0644</v>
+        <v>-6163.3815</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0199</v>
+        <v>-0.0992</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>16.9765</v>
       </c>
       <c r="E9" s="1">
+        <v>3925.243</v>
+      </c>
+      <c r="F9" s="1">
+        <v>815.0454</v>
+      </c>
+      <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
-      <c r="F9" s="1">
-        <v>859.6383</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4784.8813</v>
-      </c>
       <c r="H9" s="1">
-        <v>80808.98910000001</v>
+        <v>66291.0742</v>
       </c>
       <c r="I9" s="1">
-        <v>84593.649</v>
+        <v>3836.6185</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6794</v>
+        <v>70127.6927</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>73836.6185</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>18.8107</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-14593.649</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>80808.98910000001</v>
+        <v>-13836.6185</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0233</v>
+        <v>0.0885</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>17.414</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4740.2884</v>
       </c>
       <c r="F10" s="1">
         <v>574.2506</v>
       </c>
       <c r="G10" s="1">
-        <v>5359.1319</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>92839.99310000001</v>
+        <v>82119.33470000001</v>
       </c>
       <c r="I10" s="1">
-        <v>94593.649</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6509</v>
+        <v>82119.33470000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>83836.6185</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.686</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>92839.99310000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0224</v>
+        <v>0.0249</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>18.2974</v>
       </c>
       <c r="E11" s="1">
+        <v>5314.539</v>
+      </c>
+      <c r="F11" s="1">
+        <v>433.1399</v>
+      </c>
+      <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
-      <c r="F11" s="1">
-        <v>388.547</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5747.6789</v>
-      </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>96737.8968</v>
       </c>
       <c r="I11" s="1">
-        <v>101703.0493</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6946</v>
+        <v>96737.8968</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91761.952</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.2662</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-7109.4004</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>2890.5996</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>107512.7251</v>
+        <v>-7925.3336</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0454</v>
+        <v>0.0501</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>17.699</v>
       </c>
       <c r="E12" s="1">
+        <v>5747.6789</v>
+      </c>
+      <c r="F12" s="1">
+        <v>682.2231</v>
+      </c>
+      <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
-      <c r="F12" s="1">
-        <v>728.3236000000001</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6476.0025</v>
-      </c>
       <c r="H12" s="1">
-        <v>114024.2717</v>
+        <v>101200.5322</v>
       </c>
       <c r="I12" s="1">
-        <v>114593.649</v>
+        <v>2074.6664</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6951</v>
+        <v>103275.1986</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>103836.6185</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.0658</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-12890.5996</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>114024.2717</v>
+        <v>-12074.6664</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0297</v>
+        <v>-0.0324</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>18.0595</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6429.902</v>
       </c>
       <c r="F13" s="1">
         <v>553.7252</v>
       </c>
       <c r="G13" s="1">
-        <v>7029.7277</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126294.6821</v>
+        <v>115518.3334</v>
       </c>
       <c r="I13" s="1">
-        <v>124593.649</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.7238</v>
+        <v>115518.3334</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>113836.6185</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.7043</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>126294.6821</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0183</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>18.696</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6983.6272</v>
       </c>
       <c r="F14" s="1">
-        <v>-7029.7277</v>
+        <v>-6983.6272</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>129889.1804</v>
       </c>
       <c r="I14" s="1">
-        <v>124593.649</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.7238</v>
+        <v>129889.1804</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>113836.6185</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.3005</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>130746.6087</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>130746.6087</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>130746.6087</v>
+        <v>129889.1804</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0407</v>
+        <v>0.0348</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>17.7792</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>562.455</v>
       </c>
       <c r="G2" s="1">
-        <v>562.455</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.141600000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.7792</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.141600000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>18.0055</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>562.455</v>
       </c>
       <c r="F3" s="1">
         <v>555.3859</v>
       </c>
       <c r="G3" s="1">
-        <v>1117.8409</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20022.989</v>
+        <v>10074.8065</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.8916</v>
+        <v>10074.8065</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.7792</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20022.989</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0038</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>18.1364</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1117.8409</v>
       </c>
       <c r="F4" s="1">
         <v>551.3773</v>
       </c>
       <c r="G4" s="1">
-        <v>1669.2182</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30116.5355</v>
+        <v>20168.4201</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.9725</v>
+        <v>20168.4201</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.8916</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30116.5355</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0031</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>18.2605</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1669.2182</v>
       </c>
       <c r="F5" s="1">
         <v>547.6301</v>
       </c>
       <c r="G5" s="1">
-        <v>2216.8483</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40270.8234</v>
+        <v>30322.684</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.0436</v>
+        <v>30322.684</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.9725</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40270.8234</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0038</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>18.0221</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2216.8483</v>
       </c>
       <c r="F6" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>2771.7226</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>49693.1062</v>
+        <v>39744.987</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>-0</v>
       </c>
       <c r="J6" s="1">
-        <v>18.0393</v>
+        <v>39744.987</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.0436</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49693.1062</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0115</v>
+        <v>-0.0143</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>18.2846</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2771.7226</v>
       </c>
       <c r="F7" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>3318.6309</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>60365.2332</v>
+        <v>50417.0802</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>18.0797</v>
+        <v>50417.0802</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.0393</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60365.2332</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0113</v>
+        <v>0.0135</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>16.485</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3318.6309</v>
       </c>
       <c r="F8" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>3925.243</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>64372.4154</v>
+        <v>54424.2201</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.8333</v>
+        <v>54424.2201</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>18.0797</v>
+      </c>
+      <c r="M8" s="1">
         <v>1.538</v>
       </c>
-      <c r="L8" s="1">
-        <v>4593.649</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-5406.351</v>
+        <v>3836.6185</v>
       </c>
       <c r="O8" s="1">
-        <v>4593.649</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>68966.0644</v>
+        <v>-6163.3815</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0199</v>
+        <v>-0.0992</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>16.9765</v>
       </c>
       <c r="E9" s="1">
+        <v>3925.243</v>
+      </c>
+      <c r="F9" s="1">
+        <v>815.0454</v>
+      </c>
+      <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
-      <c r="F9" s="1">
-        <v>859.6383</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4784.8813</v>
-      </c>
       <c r="H9" s="1">
-        <v>80808.98910000001</v>
+        <v>66291.0742</v>
       </c>
       <c r="I9" s="1">
-        <v>84593.649</v>
+        <v>3836.6185</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6794</v>
+        <v>70127.6927</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>73836.6185</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>18.8107</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-14593.649</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>80808.98910000001</v>
+        <v>-13836.6185</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0233</v>
+        <v>0.0885</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>17.414</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4740.2884</v>
       </c>
       <c r="F10" s="1">
         <v>574.2506</v>
       </c>
       <c r="G10" s="1">
-        <v>5359.1319</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>92839.99310000001</v>
+        <v>82119.33470000001</v>
       </c>
       <c r="I10" s="1">
-        <v>94593.649</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6509</v>
+        <v>82119.33470000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>83836.6185</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.686</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>92839.99310000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0224</v>
+        <v>0.0249</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>18.2974</v>
       </c>
       <c r="E11" s="1">
+        <v>5314.539</v>
+      </c>
+      <c r="F11" s="1">
+        <v>546.5257</v>
+      </c>
+      <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
-      <c r="F11" s="1">
-        <v>520.6767</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5879.8086</v>
-      </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>96737.8968</v>
       </c>
       <c r="I11" s="1">
-        <v>104120.6797</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7082</v>
+        <v>96737.8968</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>93836.6185</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.6566</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-9527.030699999999</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>472.9693</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>107500.1859</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0453</v>
+        <v>0.0501</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>17.699</v>
       </c>
       <c r="E12" s="1">
+        <v>5861.0648</v>
+      </c>
+      <c r="F12" s="1">
+        <v>565.0037</v>
+      </c>
+      <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
-      <c r="F12" s="1">
-        <v>591.7266</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6471.5352</v>
-      </c>
       <c r="H12" s="1">
-        <v>113945.6154</v>
+        <v>103196.9397</v>
       </c>
       <c r="I12" s="1">
-        <v>114593.649</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7073</v>
+        <v>103196.9397</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>103836.6185</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.7163</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10472.9693</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>113945.6154</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0303</v>
+        <v>-0.0332</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>18.0595</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6426.0684</v>
       </c>
       <c r="F13" s="1">
         <v>553.7252</v>
       </c>
       <c r="G13" s="1">
-        <v>7025.2604</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>126214.4238</v>
+        <v>115449.4605</v>
       </c>
       <c r="I13" s="1">
-        <v>124593.649</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.7351</v>
+        <v>115449.4605</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>113836.6185</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.7148</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>126214.4238</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0183</v>
+        <v>0.0199</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>18.696</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6979.7936</v>
       </c>
       <c r="F14" s="1">
-        <v>-7025.2604</v>
+        <v>-6979.7936</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>129817.8797</v>
       </c>
       <c r="I14" s="1">
-        <v>124593.649</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.7351</v>
+        <v>129817.8797</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>113836.6185</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.3095</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>130663.5213</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>130663.5213</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>130663.5213</v>
+        <v>129817.8797</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0408</v>
+        <v>0.0348</v>
       </c>
     </row>
   </sheetData>
@@ -4477,11 +4450,11 @@
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>18.6456</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.7644</v>
+        <v>16.3304</v>
       </c>
       <c r="D3" s="1">
-        <v>17.7146</v>
+        <v>16.2175</v>
       </c>
       <c r="E3" s="1">
-        <v>17.7159</v>
+        <v>16.2623</v>
       </c>
       <c r="F3" s="1">
-        <v>17.7238</v>
+        <v>16.3005</v>
       </c>
       <c r="G3" s="1">
-        <v>17.7351</v>
+        <v>16.3095</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.0592</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0267</v>
+        <v>0.1004</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0275</v>
+        <v>0.1019</v>
       </c>
       <c r="E4" s="3">
-        <v>0.029</v>
+        <v>0.1029</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0297</v>
+        <v>0.103</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0289</v>
+        <v>0.1023</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.13</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0804</v>
+        <v>0.1515</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0808</v>
+        <v>0.1504</v>
       </c>
       <c r="E5" s="3">
-        <v>0.08119999999999999</v>
+        <v>0.1515</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0813</v>
+        <v>0.1519</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0814</v>
+        <v>0.1521</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>0.2987</v>
       </c>
       <c r="C6" s="4">
-        <v>0.07920000000000001</v>
+        <v>0.5288</v>
       </c>
       <c r="D6" s="4">
-        <v>0.0886</v>
+        <v>0.5425</v>
       </c>
       <c r="E6" s="4">
-        <v>0.1066</v>
+        <v>0.5452</v>
       </c>
       <c r="F6" s="4">
-        <v>0.1148</v>
+        <v>0.544</v>
       </c>
       <c r="G6" s="4">
-        <v>0.1055</v>
+        <v>0.5391</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1676</v>
+        <v>-0.0224</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1708</v>
+        <v>0.1578</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1713</v>
+        <v>0.1577</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1711</v>
+        <v>0.1568</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1692</v>
+        <v>0.1552</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>4593.649</v>
+        <v>3836.6185</v>
       </c>
       <c r="D8" s="1">
-        <v>4565.8556</v>
+        <v>3836.817</v>
       </c>
       <c r="E8" s="1">
-        <v>4593.6515</v>
+        <v>3836.621</v>
       </c>
       <c r="F8" s="1">
-        <v>4593.649</v>
+        <v>3836.6185</v>
       </c>
       <c r="G8" s="1">
-        <v>4593.649</v>
+        <v>3836.6185</v>
       </c>
     </row>
   </sheetData>
